--- a/tests/excel/Localization.xlsx
+++ b/tests/excel/Localization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D-Workspace\unity-frame\Assets\Editor\DataSystem\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D-Workspace\prothon\tests\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4936F0-079A-46ED-8081-68330D6430CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C30E63-C0A1-49B5-ABC1-CCDA1244075F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,319 +25,326 @@
     <t>*root</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>state</t>
+    <t>LC0000000</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>메모</t>
+  </si>
+  <si>
+    <t>테스트1</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>テスト1</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>LC0000001</t>
+  </si>
+  <si>
+    <t>테스트2</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>テスト2</t>
+  </si>
+  <si>
+    <t>测试2</t>
+  </si>
+  <si>
+    <t>LC0000002</t>
+  </si>
+  <si>
+    <t>테스트3</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>テスト3</t>
+  </si>
+  <si>
+    <t>测试3</t>
+  </si>
+  <si>
+    <t>LC0000003</t>
+  </si>
+  <si>
+    <t>테스트4</t>
+  </si>
+  <si>
+    <t>测试4</t>
+  </si>
+  <si>
+    <t>LC0000004</t>
+  </si>
+  <si>
+    <t>테스트5</t>
+  </si>
+  <si>
+    <t>测试5</t>
+  </si>
+  <si>
+    <t>LC0000005</t>
+  </si>
+  <si>
+    <t>테스트6</t>
+  </si>
+  <si>
+    <t>测试6</t>
+  </si>
+  <si>
+    <t>LC0000006</t>
+  </si>
+  <si>
+    <t>테스트7</t>
+  </si>
+  <si>
+    <t>测试7</t>
+  </si>
+  <si>
+    <t>LC0000007</t>
+  </si>
+  <si>
+    <t>테스트16561</t>
+  </si>
+  <si>
+    <t>测试16561</t>
+  </si>
+  <si>
+    <t>LC0000008</t>
+  </si>
+  <si>
+    <t>테스트9</t>
+  </si>
+  <si>
+    <t>测试9</t>
+  </si>
+  <si>
+    <t>LC0000009</t>
+  </si>
+  <si>
+    <t>테스트10</t>
+  </si>
+  <si>
+    <t>测试10</t>
+  </si>
+  <si>
+    <t>LC0000010</t>
+  </si>
+  <si>
+    <t>테스트11</t>
+  </si>
+  <si>
+    <t>测试11</t>
+  </si>
+  <si>
+    <t>LC0000011</t>
+  </si>
+  <si>
+    <t>테스트12</t>
+  </si>
+  <si>
+    <t>测试12</t>
+  </si>
+  <si>
+    <t>LC0000012</t>
+  </si>
+  <si>
+    <t>테스트13</t>
+  </si>
+  <si>
+    <t>测试13</t>
+  </si>
+  <si>
+    <t>LC0000013</t>
+  </si>
+  <si>
+    <t>테스트14</t>
+  </si>
+  <si>
+    <t>测试14</t>
+  </si>
+  <si>
+    <t>LC0000014</t>
+  </si>
+  <si>
+    <t>테스트15</t>
+  </si>
+  <si>
+    <t>测试15</t>
+  </si>
+  <si>
+    <t>LC0000015</t>
+  </si>
+  <si>
+    <t>테스트16</t>
+  </si>
+  <si>
+    <t>测试16</t>
+  </si>
+  <si>
+    <t>LC0000016</t>
+  </si>
+  <si>
+    <t>테스트17</t>
+  </si>
+  <si>
+    <t>测试17</t>
+  </si>
+  <si>
+    <t>LC0000017</t>
+  </si>
+  <si>
+    <t>테스트18</t>
+  </si>
+  <si>
+    <t>测试18</t>
+  </si>
+  <si>
+    <t>LC0000018</t>
+  </si>
+  <si>
+    <t>테스트19</t>
+  </si>
+  <si>
+    <t>测试19</t>
+  </si>
+  <si>
+    <t>LC0000019</t>
+  </si>
+  <si>
+    <t>테스트20</t>
+  </si>
+  <si>
+    <t>测试20</t>
+  </si>
+  <si>
+    <t>LC0000020</t>
+  </si>
+  <si>
+    <t>테스트21</t>
+  </si>
+  <si>
+    <t>测试21</t>
+  </si>
+  <si>
+    <t>LC0000021</t>
+  </si>
+  <si>
+    <t>테스트22</t>
+  </si>
+  <si>
+    <t>测试22</t>
+  </si>
+  <si>
+    <t>LC0000022</t>
+  </si>
+  <si>
+    <t>테스트23</t>
+  </si>
+  <si>
+    <t>测试23</t>
+  </si>
+  <si>
+    <t>LC0000023</t>
+  </si>
+  <si>
+    <t>테스트24</t>
+  </si>
+  <si>
+    <t>测试24</t>
+  </si>
+  <si>
+    <t>LC0000024</t>
+  </si>
+  <si>
+    <t>테스트25</t>
+  </si>
+  <si>
+    <t>测试25</t>
+  </si>
+  <si>
+    <t>LC0000025</t>
+  </si>
+  <si>
+    <t>테스트26</t>
+  </si>
+  <si>
+    <t>测试26</t>
+  </si>
+  <si>
+    <t>LC0000026</t>
+  </si>
+  <si>
+    <t>테스트27</t>
+  </si>
+  <si>
+    <t>测试27</t>
+  </si>
+  <si>
+    <t>LC0000027</t>
+  </si>
+  <si>
+    <t>테스트28</t>
+  </si>
+  <si>
+    <t>测试28</t>
+  </si>
+  <si>
+    <t>LC0000028</t>
+  </si>
+  <si>
+    <t>테스트29</t>
+  </si>
+  <si>
+    <t>测试29</t>
+  </si>
+  <si>
+    <t>LC0000029</t>
+  </si>
+  <si>
+    <t>테스트30</t>
+  </si>
+  <si>
+    <t>测试30</t>
+  </si>
+  <si>
+    <t>Id[string]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State[enum]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>~메모</t>
-  </si>
-  <si>
-    <t>korean</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>japanese</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>LC0000000</t>
-  </si>
-  <si>
-    <t>Live</t>
-  </si>
-  <si>
-    <t>메모</t>
-  </si>
-  <si>
-    <t>테스트1</t>
-  </si>
-  <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>テスト1</t>
-  </si>
-  <si>
-    <t>测试1</t>
-  </si>
-  <si>
-    <t>LC0000001</t>
-  </si>
-  <si>
-    <t>테스트2</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>テスト2</t>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <t>LC0000002</t>
-  </si>
-  <si>
-    <t>테스트3</t>
-  </si>
-  <si>
-    <t>Test 3</t>
-  </si>
-  <si>
-    <t>テスト3</t>
-  </si>
-  <si>
-    <t>测试3</t>
-  </si>
-  <si>
-    <t>LC0000003</t>
-  </si>
-  <si>
-    <t>테스트4</t>
-  </si>
-  <si>
-    <t>测试4</t>
-  </si>
-  <si>
-    <t>LC0000004</t>
-  </si>
-  <si>
-    <t>테스트5</t>
-  </si>
-  <si>
-    <t>测试5</t>
-  </si>
-  <si>
-    <t>LC0000005</t>
-  </si>
-  <si>
-    <t>테스트6</t>
-  </si>
-  <si>
-    <t>测试6</t>
-  </si>
-  <si>
-    <t>LC0000006</t>
-  </si>
-  <si>
-    <t>테스트7</t>
-  </si>
-  <si>
-    <t>测试7</t>
-  </si>
-  <si>
-    <t>LC0000007</t>
-  </si>
-  <si>
-    <t>테스트16561</t>
-  </si>
-  <si>
-    <t>测试16561</t>
-  </si>
-  <si>
-    <t>LC0000008</t>
-  </si>
-  <si>
-    <t>테스트9</t>
-  </si>
-  <si>
-    <t>测试9</t>
-  </si>
-  <si>
-    <t>LC0000009</t>
-  </si>
-  <si>
-    <t>테스트10</t>
-  </si>
-  <si>
-    <t>测试10</t>
-  </si>
-  <si>
-    <t>LC0000010</t>
-  </si>
-  <si>
-    <t>테스트11</t>
-  </si>
-  <si>
-    <t>测试11</t>
-  </si>
-  <si>
-    <t>LC0000011</t>
-  </si>
-  <si>
-    <t>테스트12</t>
-  </si>
-  <si>
-    <t>测试12</t>
-  </si>
-  <si>
-    <t>LC0000012</t>
-  </si>
-  <si>
-    <t>테스트13</t>
-  </si>
-  <si>
-    <t>测试13</t>
-  </si>
-  <si>
-    <t>LC0000013</t>
-  </si>
-  <si>
-    <t>테스트14</t>
-  </si>
-  <si>
-    <t>测试14</t>
-  </si>
-  <si>
-    <t>LC0000014</t>
-  </si>
-  <si>
-    <t>테스트15</t>
-  </si>
-  <si>
-    <t>测试15</t>
-  </si>
-  <si>
-    <t>LC0000015</t>
-  </si>
-  <si>
-    <t>테스트16</t>
-  </si>
-  <si>
-    <t>测试16</t>
-  </si>
-  <si>
-    <t>LC0000016</t>
-  </si>
-  <si>
-    <t>테스트17</t>
-  </si>
-  <si>
-    <t>测试17</t>
-  </si>
-  <si>
-    <t>LC0000017</t>
-  </si>
-  <si>
-    <t>테스트18</t>
-  </si>
-  <si>
-    <t>测试18</t>
-  </si>
-  <si>
-    <t>LC0000018</t>
-  </si>
-  <si>
-    <t>테스트19</t>
-  </si>
-  <si>
-    <t>测试19</t>
-  </si>
-  <si>
-    <t>LC0000019</t>
-  </si>
-  <si>
-    <t>테스트20</t>
-  </si>
-  <si>
-    <t>测试20</t>
-  </si>
-  <si>
-    <t>LC0000020</t>
-  </si>
-  <si>
-    <t>테스트21</t>
-  </si>
-  <si>
-    <t>测试21</t>
-  </si>
-  <si>
-    <t>LC0000021</t>
-  </si>
-  <si>
-    <t>테스트22</t>
-  </si>
-  <si>
-    <t>测试22</t>
-  </si>
-  <si>
-    <t>LC0000022</t>
-  </si>
-  <si>
-    <t>테스트23</t>
-  </si>
-  <si>
-    <t>测试23</t>
-  </si>
-  <si>
-    <t>LC0000023</t>
-  </si>
-  <si>
-    <t>테스트24</t>
-  </si>
-  <si>
-    <t>测试24</t>
-  </si>
-  <si>
-    <t>LC0000024</t>
-  </si>
-  <si>
-    <t>테스트25</t>
-  </si>
-  <si>
-    <t>测试25</t>
-  </si>
-  <si>
-    <t>LC0000025</t>
-  </si>
-  <si>
-    <t>테스트26</t>
-  </si>
-  <si>
-    <t>测试26</t>
-  </si>
-  <si>
-    <t>LC0000026</t>
-  </si>
-  <si>
-    <t>테스트27</t>
-  </si>
-  <si>
-    <t>测试27</t>
-  </si>
-  <si>
-    <t>LC0000027</t>
-  </si>
-  <si>
-    <t>테스트28</t>
-  </si>
-  <si>
-    <t>测试28</t>
-  </si>
-  <si>
-    <t>LC0000028</t>
-  </si>
-  <si>
-    <t>테스트29</t>
-  </si>
-  <si>
-    <t>测试29</t>
-  </si>
-  <si>
-    <t>LC0000029</t>
-  </si>
-  <si>
-    <t>테스트30</t>
-  </si>
-  <si>
-    <t>测试30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean[string]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English[string]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japanese[string]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese[string]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -412,13 +419,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표2" displayName="표2" ref="A2:G32" totalsRowShown="0">
   <autoFilter ref="A2:G32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="state"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id[string]"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="State[enum]"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="~메모"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="korean"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="english"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="japanese"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="chinese"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Korean[string]"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="English[string]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Japanese[string]"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Chinese[string]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -747,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -769,607 +776,607 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13"/>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14"/>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15"/>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16"/>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18"/>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22"/>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23"/>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24"/>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26"/>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27"/>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28"/>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29"/>
       <c r="G29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30"/>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32"/>
       <c r="G32" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/tests/excel/Localization.xlsx
+++ b/tests/excel/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D-Workspace\prothon\tests\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C30E63-C0A1-49B5-ABC1-CCDA1244075F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF32CDFD-11B3-4F7B-A513-1EFDE79A5C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8910" yWindow="3315" windowWidth="12555" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Localization" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>*root</t>
   </si>
@@ -28,9 +28,6 @@
     <t>LC0000000</t>
   </si>
   <si>
-    <t>Live</t>
-  </si>
-  <si>
     <t>메모</t>
   </si>
   <si>
@@ -320,10 +317,6 @@
   </si>
   <si>
     <t>Id[string]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>State[enum]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -416,11 +409,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표2" displayName="표2" ref="A2:G32" totalsRowShown="0">
-  <autoFilter ref="A2:G32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표2" displayName="표2" ref="A2:F32" totalsRowShown="0">
+  <autoFilter ref="A2:F32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id[string]"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="State[enum]"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="~메모"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Korean[string]"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="English[string]"/>
@@ -752,52 +744,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -810,573 +798,483 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6"/>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6"/>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7"/>
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7"/>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8"/>
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8"/>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9"/>
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9"/>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10"/>
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10"/>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11"/>
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11"/>
-      <c r="G11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12"/>
+      <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12"/>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13"/>
+      <c r="F13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13"/>
-      <c r="G13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14"/>
+      <c r="F14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14"/>
-      <c r="G14" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15"/>
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15"/>
-      <c r="G15" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16"/>
+      <c r="F16" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16"/>
-      <c r="G16" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17"/>
+      <c r="F17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17"/>
-      <c r="G17" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18"/>
+      <c r="F18" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18"/>
-      <c r="G18" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19"/>
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19"/>
-      <c r="G19" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20"/>
+      <c r="F20" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20"/>
-      <c r="G20" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="1"/>
+      <c r="E21"/>
+      <c r="F21" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21"/>
-      <c r="G21" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22"/>
+      <c r="F22" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22"/>
-      <c r="G22" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23"/>
+      <c r="F23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23"/>
-      <c r="G23" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24"/>
+      <c r="F24" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24"/>
-      <c r="G24" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="1"/>
+      <c r="E25"/>
+      <c r="F25" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25"/>
-      <c r="G25" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26"/>
+      <c r="F26" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26"/>
-      <c r="G26" t="s">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27"/>
+      <c r="F27" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27"/>
-      <c r="G27" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28"/>
+      <c r="F28" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28"/>
-      <c r="G28" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="1"/>
+      <c r="E29"/>
+      <c r="F29" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29"/>
-      <c r="G29" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30"/>
+      <c r="F30" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30"/>
-      <c r="G30" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31"/>
+      <c r="F31" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31"/>
-      <c r="G31" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="1"/>
+      <c r="E32"/>
+      <c r="F32" t="s">
         <v>97</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32"/>
-      <c r="G32" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
